--- a/ROOT/3. SCM-Anwendungen(MA)_Gesamtbewertung.xlsx
+++ b/ROOT/3. SCM-Anwendungen(MA)_Gesamtbewertung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_A76BADD7BF96756AC433359B4C30A4C5B13FF93F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB5CEEB-226F-CC4C-AEF6-6CA39C8BDFBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA02A4-1804-4A04-A489-55FFD220936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skala" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>Kriterium</t>
   </si>
@@ -149,13 +149,6 @@
   <si>
     <t>keine Bereitschaft Kosten oder
 Kalkulation offenzulegen</t>
-  </si>
-  <si>
-    <t>Ausweisen von Materialpreisen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materialpreise werden offengelegt
-</t>
   </si>
   <si>
     <t>Materialpreise und Kalkulationen 
@@ -528,6 +521,46 @@
   </si>
   <si>
     <t>&lt; 5 000 kg CO2e</t>
+  </si>
+  <si>
+    <t>Datentyp</t>
+  </si>
+  <si>
+    <t>Intervall</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Exact Match</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>mäßige Innovationsbereitschaft,
+grundlegende technologische Kompetenz der Fertigungsverfahren</t>
+  </si>
+  <si>
+    <t>sehr gute Innovationsbereitschaft,
+hohe technologische Kompetenz der Fertigungsverfahren</t>
+  </si>
+  <si>
+    <t>sehr geringe Kostentransparenz,
+unvollständige oder nur informelle Kostenangaben</t>
+  </si>
+  <si>
+    <t>Geringes ausweisen von Materialpreisen</t>
+  </si>
+  <si>
+    <t>Ausgewählte Offenlegung von Materialpreisen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Materialpreise werden offengelegt
+</t>
   </si>
 </sst>
 </file>
@@ -584,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -607,6 +640,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -622,10 +661,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,23 +926,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:J34"/>
+  <dimension ref="A4:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="4" customWidth="1"/>
-    <col min="4" max="9" width="30.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="20.83203125" style="4"/>
+    <col min="1" max="1" width="31.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="30.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="20.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,8 +973,11 @@
       <c r="J4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -953,7 +991,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -970,22 +1008,25 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K6" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -999,25 +1040,28 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K7" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1031,25 +1075,28 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K8" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1063,25 +1110,28 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K9" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1112,8 +1162,11 @@
       <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K10" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1126,8 +1179,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1189,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1158,8 +1212,11 @@
       <c r="J12" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K12" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1175,22 +1232,31 @@
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -1199,30 +1265,33 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="J14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -1231,27 +1300,30 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1262,68 +1334,81 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="K18" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1334,96 +1419,109 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="K20" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -1432,18 +1530,21 @@
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1454,13 +1555,14 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -1469,21 +1571,24 @@
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
@@ -1492,21 +1597,24 @@
         <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="K27" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
@@ -1515,24 +1623,27 @@
         <v>8</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K28" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1543,13 +1654,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
@@ -1558,90 +1670,99 @@
         <v>8</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="K31" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
